--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
@@ -550,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,12 +598,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Southwest Project\SMO Gopalgonj\Khal\P1\XL DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3572A-7EB5-4045-BFA5-4702ABC6DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Design_Q" sheetId="2" r:id="rId2"/>
     <sheet name="Hydraulic_Design" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -210,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,12 +245,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -264,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -280,6 +303,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -290,6 +317,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -550,27 +580,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="97.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -588,21 +618,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B25" sqref="B25:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
@@ -611,7 +641,7 @@
     <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -661,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -720,7 +750,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -779,7 +809,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -838,7 +868,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -897,7 +927,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -956,7 +986,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1045,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1104,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1163,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1192,7 +1222,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1251,7 +1281,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1310,7 +1340,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1369,7 +1399,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1428,7 +1458,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1487,7 +1517,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1546,7 +1576,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1605,7 +1635,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1664,7 +1694,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1723,7 +1753,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1782,7 +1812,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1797,7 +1827,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1812,7 +1842,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1827,7 +1857,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1842,7 +1872,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1857,7 +1887,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1872,7 +1902,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1887,7 +1917,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1902,7 +1932,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1917,7 +1947,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1932,7 +1962,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1947,7 +1977,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1962,7 +1992,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1977,7 +2007,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1992,7 +2022,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2007,7 +2037,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2022,7 +2052,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2037,7 +2067,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2052,7 +2082,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2067,7 +2097,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -2082,7 +2112,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2097,7 +2127,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -2112,7 +2142,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -2127,7 +2157,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2142,7 +2172,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -2157,7 +2187,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -2172,7 +2202,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2187,7 +2217,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -2202,7 +2232,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -2217,7 +2247,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2232,7 +2262,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -2247,7 +2277,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -2262,7 +2292,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -2277,7 +2307,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2292,7 +2322,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2307,7 +2337,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -2322,7 +2352,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2337,7 +2367,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -2352,7 +2382,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2367,7 +2397,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2382,7 +2412,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2397,7 +2427,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2412,7 +2442,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2427,7 +2457,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -2442,7 +2472,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -2457,7 +2487,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2472,7 +2502,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -2487,7 +2517,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -2502,7 +2532,7 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
     </row>
-    <row r="69" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -2517,7 +2547,7 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
     </row>
-    <row r="70" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2532,7 +2562,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -2547,7 +2577,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -2562,7 +2592,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
     </row>
-    <row r="73" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2577,7 +2607,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2592,7 +2622,7 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -2607,7 +2637,7 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
     </row>
-    <row r="76" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2622,7 +2652,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -2637,7 +2667,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -2652,7 +2682,7 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -2667,7 +2697,7 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
     </row>
-    <row r="80" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -2682,7 +2712,7 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
     </row>
-    <row r="81" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -2697,7 +2727,7 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
     </row>
-    <row r="82" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -2712,7 +2742,7 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -2727,7 +2757,7 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
     </row>
-    <row r="84" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -2742,7 +2772,7 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
     </row>
-    <row r="85" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -2757,7 +2787,7 @@
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -2772,7 +2802,7 @@
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -2787,7 +2817,7 @@
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -2802,7 +2832,7 @@
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
     </row>
-    <row r="89" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -2817,7 +2847,7 @@
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
     </row>
-    <row r="90" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -2832,7 +2862,7 @@
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
     </row>
-    <row r="91" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -2847,7 +2877,7 @@
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
     </row>
-    <row r="92" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -2862,7 +2892,7 @@
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
     </row>
-    <row r="93" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -2877,7 +2907,7 @@
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
     </row>
-    <row r="94" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -2892,7 +2922,7 @@
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
     </row>
-    <row r="95" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -2907,7 +2937,7 @@
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
     </row>
-    <row r="96" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -2922,7 +2952,7 @@
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
     </row>
-    <row r="97" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -2937,7 +2967,7 @@
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
     </row>
-    <row r="98" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -2952,7 +2982,7 @@
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
     </row>
-    <row r="99" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -2967,7 +2997,7 @@
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
     </row>
-    <row r="100" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -2982,7 +3012,7 @@
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
     </row>
-    <row r="101" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -2997,7 +3027,7 @@
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
     </row>
-    <row r="102" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -3012,7 +3042,7 @@
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -3027,7 +3057,7 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
     </row>
-    <row r="104" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -3042,7 +3072,7 @@
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
     </row>
-    <row r="105" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -3057,7 +3087,7 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
     </row>
-    <row r="106" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -3072,7 +3102,7 @@
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
     </row>
-    <row r="107" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -3087,7 +3117,7 @@
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
     </row>
-    <row r="108" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -3102,7 +3132,7 @@
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
     </row>
-    <row r="109" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -3117,7 +3147,7 @@
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
     </row>
-    <row r="110" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -3132,7 +3162,7 @@
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
     </row>
-    <row r="111" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -3147,7 +3177,7 @@
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
     </row>
-    <row r="112" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -3162,7 +3192,7 @@
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
     </row>
-    <row r="113" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -3177,7 +3207,7 @@
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
     </row>
-    <row r="114" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -3192,7 +3222,7 @@
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
     </row>
-    <row r="115" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -3207,7 +3237,7 @@
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
     </row>
-    <row r="116" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -3222,7 +3252,7 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
     </row>
-    <row r="117" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -3237,7 +3267,7 @@
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
     </row>
-    <row r="118" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -3252,7 +3282,7 @@
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
     </row>
-    <row r="119" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -3267,7 +3297,7 @@
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
     </row>
-    <row r="120" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -3282,7 +3312,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -3297,7 +3327,7 @@
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
     </row>
-    <row r="122" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -3312,7 +3342,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -3327,7 +3357,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -3342,7 +3372,7 @@
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
     </row>
-    <row r="125" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -3357,7 +3387,7 @@
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
     </row>
-    <row r="126" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -3372,7 +3402,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -3387,7 +3417,7 @@
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
     </row>
-    <row r="128" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -3402,7 +3432,7 @@
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
     </row>
-    <row r="129" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -3417,7 +3447,7 @@
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
     </row>
-    <row r="130" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -3432,7 +3462,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -3447,7 +3477,7 @@
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
     </row>
-    <row r="132" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -3462,7 +3492,7 @@
       <c r="O132" s="6"/>
       <c r="P132" s="6"/>
     </row>
-    <row r="133" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -3477,7 +3507,7 @@
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
     </row>
-    <row r="134" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -3492,7 +3522,7 @@
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
     </row>
-    <row r="135" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -3507,7 +3537,7 @@
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
     </row>
-    <row r="136" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -3522,7 +3552,7 @@
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
     </row>
-    <row r="137" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -3537,7 +3567,7 @@
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
     </row>
-    <row r="138" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -3552,7 +3582,7 @@
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
     </row>
-    <row r="139" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -3567,7 +3597,7 @@
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
     </row>
-    <row r="140" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -3582,7 +3612,7 @@
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
     </row>
-    <row r="141" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -3597,7 +3627,7 @@
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
     </row>
-    <row r="142" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -3612,7 +3642,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -3627,7 +3657,7 @@
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
     </row>
-    <row r="144" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -3642,7 +3672,7 @@
       <c r="O144" s="6"/>
       <c r="P144" s="6"/>
     </row>
-    <row r="145" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -3657,7 +3687,7 @@
       <c r="O145" s="6"/>
       <c r="P145" s="6"/>
     </row>
-    <row r="146" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -3672,7 +3702,7 @@
       <c r="O146" s="6"/>
       <c r="P146" s="6"/>
     </row>
-    <row r="147" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -3687,7 +3717,7 @@
       <c r="O147" s="6"/>
       <c r="P147" s="6"/>
     </row>
-    <row r="148" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -3702,7 +3732,7 @@
       <c r="O148" s="6"/>
       <c r="P148" s="6"/>
     </row>
-    <row r="149" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -3717,7 +3747,7 @@
       <c r="O149" s="6"/>
       <c r="P149" s="6"/>
     </row>
-    <row r="150" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -3732,7 +3762,7 @@
       <c r="O150" s="6"/>
       <c r="P150" s="6"/>
     </row>
-    <row r="151" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -3747,7 +3777,7 @@
       <c r="O151" s="6"/>
       <c r="P151" s="6"/>
     </row>
-    <row r="152" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -3762,7 +3792,7 @@
       <c r="O152" s="6"/>
       <c r="P152" s="6"/>
     </row>
-    <row r="153" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -3777,7 +3807,7 @@
       <c r="O153" s="6"/>
       <c r="P153" s="6"/>
     </row>
-    <row r="154" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -3792,7 +3822,7 @@
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
     </row>
-    <row r="155" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -3807,7 +3837,7 @@
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
     </row>
-    <row r="156" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -3822,7 +3852,7 @@
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
     </row>
-    <row r="157" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -3837,7 +3867,7 @@
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
     </row>
-    <row r="158" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -3852,7 +3882,7 @@
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
     </row>
-    <row r="159" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -3867,7 +3897,7 @@
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
     </row>
-    <row r="160" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -3882,7 +3912,7 @@
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
     </row>
-    <row r="161" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -3897,7 +3927,7 @@
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
     </row>
-    <row r="162" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -3912,7 +3942,7 @@
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
     </row>
-    <row r="163" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -3927,7 +3957,7 @@
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
     </row>
-    <row r="164" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -3942,7 +3972,7 @@
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
     </row>
-    <row r="165" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -3957,7 +3987,7 @@
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
     </row>
-    <row r="166" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -3972,7 +4002,7 @@
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
     </row>
-    <row r="167" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -3987,7 +4017,7 @@
       <c r="O167" s="6"/>
       <c r="P167" s="6"/>
     </row>
-    <row r="168" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -4002,7 +4032,7 @@
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
     </row>
-    <row r="169" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -4017,7 +4047,7 @@
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
     </row>
-    <row r="170" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -4032,7 +4062,7 @@
       <c r="O170" s="6"/>
       <c r="P170" s="6"/>
     </row>
-    <row r="171" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -4047,7 +4077,7 @@
       <c r="O171" s="6"/>
       <c r="P171" s="6"/>
     </row>
-    <row r="172" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -4062,7 +4092,7 @@
       <c r="O172" s="6"/>
       <c r="P172" s="6"/>
     </row>
-    <row r="173" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -4077,7 +4107,7 @@
       <c r="O173" s="6"/>
       <c r="P173" s="6"/>
     </row>
-    <row r="174" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -4092,7 +4122,7 @@
       <c r="O174" s="6"/>
       <c r="P174" s="6"/>
     </row>
-    <row r="175" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -4107,7 +4137,7 @@
       <c r="O175" s="6"/>
       <c r="P175" s="6"/>
     </row>
-    <row r="176" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -4122,7 +4152,7 @@
       <c r="O176" s="6"/>
       <c r="P176" s="6"/>
     </row>
-    <row r="177" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -4137,7 +4167,7 @@
       <c r="O177" s="6"/>
       <c r="P177" s="6"/>
     </row>
-    <row r="178" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -4152,7 +4182,7 @@
       <c r="O178" s="6"/>
       <c r="P178" s="6"/>
     </row>
-    <row r="179" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -4167,7 +4197,7 @@
       <c r="O179" s="6"/>
       <c r="P179" s="6"/>
     </row>
-    <row r="180" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -4182,7 +4212,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -4197,7 +4227,7 @@
       <c r="O181" s="6"/>
       <c r="P181" s="6"/>
     </row>
-    <row r="182" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -4212,7 +4242,7 @@
       <c r="O182" s="6"/>
       <c r="P182" s="6"/>
     </row>
-    <row r="183" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -4227,7 +4257,7 @@
       <c r="O183" s="6"/>
       <c r="P183" s="6"/>
     </row>
-    <row r="184" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -4242,7 +4272,7 @@
       <c r="O184" s="6"/>
       <c r="P184" s="6"/>
     </row>
-    <row r="185" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -4257,7 +4287,7 @@
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
     </row>
-    <row r="186" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -4272,7 +4302,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -4287,7 +4317,7 @@
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
     </row>
-    <row r="188" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -4302,7 +4332,7 @@
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
     </row>
-    <row r="189" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -4317,7 +4347,7 @@
       <c r="O189" s="6"/>
       <c r="P189" s="6"/>
     </row>
-    <row r="190" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -4332,7 +4362,7 @@
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
     </row>
-    <row r="191" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -4347,7 +4377,7 @@
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
     </row>
-    <row r="192" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -4362,7 +4392,7 @@
       <c r="O192" s="6"/>
       <c r="P192" s="6"/>
     </row>
-    <row r="193" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -4377,7 +4407,7 @@
       <c r="O193" s="6"/>
       <c r="P193" s="6"/>
     </row>
-    <row r="194" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -4392,7 +4422,7 @@
       <c r="O194" s="6"/>
       <c r="P194" s="6"/>
     </row>
-    <row r="195" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -4407,7 +4437,7 @@
       <c r="O195" s="6"/>
       <c r="P195" s="6"/>
     </row>
-    <row r="196" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -4422,7 +4452,7 @@
       <c r="O196" s="6"/>
       <c r="P196" s="6"/>
     </row>
-    <row r="197" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -4437,7 +4467,7 @@
       <c r="O197" s="6"/>
       <c r="P197" s="6"/>
     </row>
-    <row r="198" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -4452,7 +4482,7 @@
       <c r="O198" s="6"/>
       <c r="P198" s="6"/>
     </row>
-    <row r="199" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -4467,7 +4497,7 @@
       <c r="O199" s="6"/>
       <c r="P199" s="6"/>
     </row>
-    <row r="200" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -4482,7 +4512,7 @@
       <c r="O200" s="6"/>
       <c r="P200" s="6"/>
     </row>
-    <row r="201" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -4497,7 +4527,7 @@
       <c r="O201" s="6"/>
       <c r="P201" s="6"/>
     </row>
-    <row r="202" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -4512,7 +4542,7 @@
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
     </row>
-    <row r="203" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -4527,7 +4557,7 @@
       <c r="O203" s="6"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -4542,7 +4572,7 @@
       <c r="O204" s="6"/>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -4557,7 +4587,7 @@
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -4572,7 +4602,7 @@
       <c r="O206" s="6"/>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -4587,7 +4617,7 @@
       <c r="O207" s="6"/>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -4602,7 +4632,7 @@
       <c r="O208" s="6"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -4617,7 +4647,7 @@
       <c r="O209" s="6"/>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -4632,7 +4662,7 @@
       <c r="O210" s="6"/>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -4647,7 +4677,7 @@
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -4662,7 +4692,7 @@
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -4677,7 +4707,7 @@
       <c r="O213" s="6"/>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -4692,7 +4722,7 @@
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -4707,7 +4737,7 @@
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -4722,7 +4752,7 @@
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -4737,7 +4767,7 @@
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -4752,7 +4782,7 @@
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -4767,7 +4797,7 @@
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
     </row>
-    <row r="220" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -4782,7 +4812,7 @@
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
     </row>
-    <row r="221" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -4797,7 +4827,7 @@
       <c r="O221" s="4"/>
       <c r="P221" s="6"/>
     </row>
-    <row r="222" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -4812,7 +4842,7 @@
       <c r="O222" s="4"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -4834,19 +4864,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -4863,7 +4893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4881,7 +4911,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4898,7 +4928,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4915,7 +4945,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4932,7 +4962,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4949,7 +4979,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4966,7 +4996,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4983,7 +5013,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5000,7 +5030,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5017,7 +5047,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -5034,7 +5064,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -5051,7 +5081,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5068,7 +5098,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -5085,7 +5115,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5102,7 +5132,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -5119,7 +5149,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -5136,24 +5166,24 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="8">
         <v>3.75</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="8">
         <v>2.02</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -5170,7 +5200,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Southwest Project\SMO Gopalgonj\Khal\P1\XL DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3572A-7EB5-4045-BFA5-4702ABC6DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E67BF-7236-45B6-853B-88888C2C8F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4867,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Southwest Project\SMO Gopalgonj\Khal\P1\XL DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E67BF-7236-45B6-853B-88888C2C8F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4012E2DA-D6A9-4D1F-BCC8-349FB5360063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Southwest Project\SMO Gopalgonj\Khal\P1\XL DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4012E2DA-D6A9-4D1F-BCC8-349FB5360063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2533A487-5268-4F26-A0DA-D3DDEE5AFDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:S223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/XL DATA/Hydraulogic_Design_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Southwest Project\SMO Gopalgonj\Khal\P1\XL DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2533A487-5268-4F26-A0DA-D3DDEE5AFDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C72056-8BCB-4698-8369-9C4E91B4D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:S223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
